--- a/MVandebroek/TAKEN/TASK1/1. FILES/indquestions_taak1.xlsx
+++ b/MVandebroek/TAKEN/TASK1/1. FILES/indquestions_taak1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,11 +378,11 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>Student ID:  c1206235 
- Use the data in https://feb.kuleuven.be/public/U0004359/dataePAxyD.txt 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddKIcCYN/1.dataKIcCYN.txt 
  The questions for this task are listed below. 
- Q1: Perform a regression analysis with dependent variable Y3 and independent variables X1 and X3 (without the interaction term). Give the estimate for the parameter corresponding to variable X1. 
- Q2: Perform a regression analysis with dependent variable Y3 and independent variables X3 and X4. Take the interaction into account. Give the p-value of the parameter corresponding to the interaction term. 
- Q3: Perform a regression analysis with dependent variable Y1 and independent variables X2, X3 and X4 (without the interaction terms). Give the proportion of explained variance. 
+ Q1: Perform a regression analysis with dependent variable Y2 and independent variables X1 and X3 (without the interaction term). Give the estimate for the parameter corresponding to variable X3. 
+ Q2: Perform a regression analysis with dependent variable Y2 and independent variables X2 and X5. Take the interaction into account. Give the p-value of the parameter corresponding to the interaction term. 
+ Q3: Perform a regression analysis with dependent variable Y3 and independent variables X1, X2 and X3 (without the interaction terms). Give the proportion of explained variance. 
  Don't forget to round decimals to three digits.</t>
         </is>
       </c>
@@ -396,29 +396,29 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>Cursist ID:  c1242115 
- Gebruik de data in https://feb.kuleuven.be/public/U0004359/dataiVQYPJ.txt 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddEqMRhl/1.dataEqMRhl.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie analyse uit met als afhankelijke variabele Y1 en als onafhankelijke variabelen X1 en X2 (zonder interactieterm). Geef de parameterschatting die hoort bij variabele X2. 
+ V2: Voer een regressie analyse uit met als  afhankelijke variabele Y2, en onafhankelijke variabelen X2 en X5. Neem ook de interactieterm op. Geef de p-waarde die bij de parameter van de interactieterm hoort. 
+ V3: Voer een regressie analyse uit met als afhankelijke variabele Y2, en onafhankelijke variabelen X3, X4 en X5 (zonder interactietermen). Geef de proportie verklaarde variantie. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>c1243957</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cursist ID:  c1243957 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddOVbcNR/1.dataOVbcNR.txt 
  De vragen voor deze taak staan hieronder vermeld. 
  V1: Voer een regressie analyse uit met als afhankelijke variabele Y2 en als onafhankelijke variabelen X1 en X3 (zonder interactieterm). Geef de parameterschatting die hoort bij variabele X3. 
- V2: Voer een regressie analyse uit met als  afhankelijke variabele Y3, en onafhankelijke variabelen X3 en X4. Neem ook de interactieterm op. Geef de p-waarde die bij de parameter van de interactieterm hoort. 
- V3: Voer een regressie analyse uit met als afhankelijke variabele Y3, en onafhankelijke variabelen X1, X2 en X3 (zonder interactietermen). Geef de proportie verklaarde variantie. 
- Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>c1243957</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cursist ID:  c1243957 
- Gebruik de data in https://feb.kuleuven.be/public/U0004359/datayXzkle.txt 
- De vragen voor deze taak staan hieronder vermeld. 
- V1: Voer een regressie analyse uit met als afhankelijke variabele Y1 en als onafhankelijke variabelen X1 en X2 (zonder interactieterm). Geef de parameterschatting die hoort bij variabele X2. 
  V2: Voer een regressie analyse uit met als afhankelijke variabele Y1, en onafhankelijke variabelen X2 en X4. Neem ook de interactieterm op. Geef de p-waarde die bij de parameter van de interactieterm hoort. 
- V3: Voer een regressie analyse uit met als afhankelijke variabele Y3, en onafhankelijke variabelen X1, X2 en X3 (zonder interactietermen). Geef de proportie verklaarde variantie. 
+ V3: Voer een regressie analyse uit met als afhankelijke variabele Y1, en onafhankelijke variabelen X2, X3 en X4 (zonder interactietermen). Geef de proportie verklaarde variantie. 
  Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
         </is>
       </c>
@@ -426,31 +426,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>q0328135_previewuser</t>
+          <t>q0762379</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Student ID:  q0328135_previewuser 
- Use the data in https://feb.kuleuven.be/public/U0004359/datahPQFvR.txt 
- The questions for this task are listed below. 
- Q1: Perform a regression analysis with dependent variable Y2 and independent variables X1 and X3 (without the interaction term). Give the estimate for the parameter corresponding to variable X3. 
- Q2: Perform a regression analysis with dependent variable Y3 and independent variables X3 and X4. Take the interaction into account. Give the p-value of the parameter corresponding to the interaction term. 
- Q3: Perform a regression analysis with dependent variable Y3 and independent variables X1, X2 and X3 (without the interaction terms). Give the proportion of explained variance. 
- Don't forget to round decimals to three digits.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>q0762379</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>Student ID:  q0762379 
- Use the data in https://feb.kuleuven.be/public/U0004359/datalDLHdt.txt 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddtJEMYS/1.datatJEMYS.txt 
  The questions for this task are listed below. 
  Q1: Perform a regression analysis with dependent variable Y1 and independent variables X1 and X2 (without the interaction term). Give the estimate for the parameter corresponding to variable X2. 
  Q2: Perform a regression analysis with dependent variable Y3 and independent variables X3 and X4. Take the interaction into account. Give the p-value of the parameter corresponding to the interaction term. 
@@ -459,38 +441,38 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>q1371623</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Student ID:  q1371623 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddtMfwWh/1.datatMfwWh.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression analysis with dependent variable Y1 and independent variables X1 and X2 (without the interaction term). Give the estimate for the parameter corresponding to variable X2. 
+ Q2: Perform a regression analysis with dependent variable Y2 and independent variables X2 and X5. Take the interaction into account. Give the p-value of the parameter corresponding to the interaction term. 
+ Q3: Perform a regression analysis with dependent variable Y3 and independent variables X1, X2 and X3 (without the interaction terms). Give the proportion of explained variance. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>q1371623</t>
+          <t>q1411379</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Student ID:  q1371623 
- Use the data in https://feb.kuleuven.be/public/U0004359/dataPrlRAD.txt 
+          <t>Student ID:  q1411379 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddnfKWJY/1.datanfKWJY.txt 
  The questions for this task are listed below. 
  Q1: Perform a regression analysis with dependent variable Y1 and independent variables X1 and X2 (without the interaction term). Give the estimate for the parameter corresponding to variable X2. 
- Q2: Perform a regression analysis with dependent variable Y1 and independent variables X2 and X4. Take the interaction into account. Give the p-value of the parameter corresponding to the interaction term. 
- Q3: Perform a regression analysis with dependent variable Y1 and independent variables X2, X3 and X4 (without the interaction terms). Give the proportion of explained variance. 
- Don't forget to round decimals to three digits.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>q1411379</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Student ID:  q1411379 
- Use the data in https://feb.kuleuven.be/public/U0004359/dataKnybkY.txt 
- The questions for this task are listed below. 
- Q1: Perform a regression analysis with dependent variable Y1 and independent variables X1 and X2 (without the interaction term). Give the estimate for the parameter corresponding to variable X2. 
- Q2: Perform a regression analysis with dependent variable Y3 and independent variables X3 and X4. Take the interaction into account. Give the p-value of the parameter corresponding to the interaction term. 
- Q3: Perform a regression analysis with dependent variable Y2 and independent variables X3, X4 and X5 (without the interaction terms). Give the proportion of explained variance. 
+ Q2: Perform a regression analysis with dependent variable Y2 and independent variables X2 and X5. Take the interaction into account. Give the p-value of the parameter corresponding to the interaction term. 
+ Q3: Perform a regression analysis with dependent variable Y3 and independent variables X1, X2 and X3 (without the interaction terms). Give the proportion of explained variance. 
  Don't forget to round decimals to three digits.</t>
         </is>
       </c>

--- a/MVandebroek/TAKEN/TASK1/1. FILES/indquestions_taak1.xlsx
+++ b/MVandebroek/TAKEN/TASK1/1. FILES/indquestions_taak1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,35 +372,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>c1206235</t>
+          <t>c1242115</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Student ID:  c1206235 
- Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddKIcCYN/1.dataKIcCYN.txt 
- The questions for this task are listed below. 
- Q1: Perform a regression analysis with dependent variable Y2 and independent variables X1 and X3 (without the interaction term). Give the estimate for the parameter corresponding to variable X3. 
- Q2: Perform a regression analysis with dependent variable Y2 and independent variables X2 and X5. Take the interaction into account. Give the p-value of the parameter corresponding to the interaction term. 
- Q3: Perform a regression analysis with dependent variable Y3 and independent variables X1, X2 and X3 (without the interaction terms). Give the proportion of explained variance. 
- Don't forget to round decimals to three digits.</t>
+          <t>Cursist ID:  c1242115 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddKIcCYN/1.dataKIcCYN.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>c1242115</t>
+          <t>c1243957</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cursist ID:  c1242115 
+          <t>Cursist ID:  c1243957 
  Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddEqMRhl/1.dataEqMRhl.txt 
  De vragen voor deze taak staan hieronder vermeld. 
- V1: Voer een regressie analyse uit met als afhankelijke variabele Y1 en als onafhankelijke variabelen X1 en X2 (zonder interactieterm). Geef de parameterschatting die hoort bij variabele X2. 
- V2: Voer een regressie analyse uit met als  afhankelijke variabele Y2, en onafhankelijke variabelen X2 en X5. Neem ook de interactieterm op. Geef de p-waarde die bij de parameter van de interactieterm hoort. 
- V3: Voer een regressie analyse uit met als afhankelijke variabele Y2, en onafhankelijke variabelen X3, X4 en X5 (zonder interactietermen). Geef de proportie verklaarde variantie. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
  Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
         </is>
       </c>
@@ -408,17 +410,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>c1243957</t>
+          <t>q0328135_previewuser</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cursist ID:  c1243957 
+          <t>Cursist ID:  q0328135_previewuser 
  Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddOVbcNR/1.dataOVbcNR.txt 
  De vragen voor deze taak staan hieronder vermeld. 
- V1: Voer een regressie analyse uit met als afhankelijke variabele Y2 en als onafhankelijke variabelen X1 en X3 (zonder interactieterm). Geef de parameterschatting die hoort bij variabele X3. 
- V2: Voer een regressie analyse uit met als afhankelijke variabele Y1, en onafhankelijke variabelen X2 en X4. Neem ook de interactieterm op. Geef de p-waarde die bij de parameter van de interactieterm hoort. 
- V3: Voer een regressie analyse uit met als afhankelijke variabele Y1, en onafhankelijke variabelen X2, X3 en X4 (zonder interactietermen). Geef de proportie verklaarde variantie. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
  Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
         </is>
       </c>
@@ -426,54 +429,6308 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>q0762379</t>
+          <t>q0946869</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Student ID:  q0762379 
- Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddtJEMYS/1.datatJEMYS.txt 
- The questions for this task are listed below. 
- Q1: Perform a regression analysis with dependent variable Y1 and independent variables X1 and X2 (without the interaction term). Give the estimate for the parameter corresponding to variable X2. 
- Q2: Perform a regression analysis with dependent variable Y3 and independent variables X3 and X4. Take the interaction into account. Give the p-value of the parameter corresponding to the interaction term. 
- Q3: Perform a regression analysis with dependent variable Y3 and independent variables X1, X2 and X3 (without the interaction terms). Give the proportion of explained variance. 
- Don't forget to round decimals to three digits.</t>
+          <t>Cursist ID:  q0946869 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddtJEMYS/1.datatJEMYS.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>q1371623</t>
+          <t>q0993145</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Student ID:  q1371623 
- Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddtMfwWh/1.datatMfwWh.txt 
- The questions for this task are listed below. 
- Q1: Perform a regression analysis with dependent variable Y1 and independent variables X1 and X2 (without the interaction term). Give the estimate for the parameter corresponding to variable X2. 
- Q2: Perform a regression analysis with dependent variable Y2 and independent variables X2 and X5. Take the interaction into account. Give the p-value of the parameter corresponding to the interaction term. 
- Q3: Perform a regression analysis with dependent variable Y3 and independent variables X1, X2 and X3 (without the interaction terms). Give the proportion of explained variance. 
- Don't forget to round decimals to three digits.</t>
+          <t>Cursist ID:  q0993145 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddtMfwWh/1.datatMfwWh.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>q1126599</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1126599 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddnfKWJY/1.datanfKWJY.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>q1130740</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1130740 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddJfZnwI/1.dataJfZnwI.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>q1136736</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Student ID:  q1136736 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddujxzmJ/1.dataujxzmJ.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>q1188381</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Student ID:  q1188381 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddHybqEY/1.dataHybqEY.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>q1194458</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1194458 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddNJrAvL/1.dataNJrAvL.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>q1220257</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Student ID:  q1220257 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSVcfiQ/1.dataSVcfiQ.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>q1223499</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1223499 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddubPSKO/1.dataubPSKO.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>q1226687</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1226687 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddZTSdwV/1.dataZTSdwV.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>q1229869</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1229869 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddygzsHu/1.dataygzsHu.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>q1229911</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Student ID:  q1229911 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddspRQog/1.dataspRQog.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>q1229992</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Student ID:  q1229992 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddxaHlds/1.dataxaHlds.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>q1232840</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1232840 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddjYDyPI/1.datajYDyPI.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>q1235315</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Student ID:  q1235315 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddRqaucC/1.dataRqaucC.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>q1236338</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1236338 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddbsRflr/1.databsRflr.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>q1236343</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1236343 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddADNMJS/1.dataADNMJS.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V4: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>q1239226</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1239226 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddTspLaJ/1.dataTspLaJ.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>q1266592</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Student ID:  q1266592 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddDpHLyo/1.dataDpHLyo.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>q1267761</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Student ID:  q1267761 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddMfvSns/1.dataMfvSns.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>q1270832</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Student ID:  q1270832 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddMyLcuS/1.dataMyLcuS.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>q1277736</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Student ID:  q1277736 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddZtrBaI/1.dataZtrBaI.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>q1283721</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1283721 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddlEAnbp/1.datalEAnbp.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>q1284553</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1284553 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddFxghwX/1.dataFxghwX.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>q1286217</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1286217 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddsQudFY/1.datasQudFY.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>q1291452</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Student ID:  q1291452 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddpnlrXE/1.datapnlrXE.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>q1303371</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1303371 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddHhKiRw/1.dataHhKiRw.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>q1304461</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1304461 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddJpERsI/1.dataJpERsI.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>q1305288</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Student ID:  q1305288 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/dduRvXPW/1.datauRvXPW.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>q1310242</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1310242 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSTFRCz/1.dataSTFRCz.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>q1310669</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1310669 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddNJwXKC/1.dataNJwXKC.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>q1313472</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1313472 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddoXAvMx/1.dataoXAvMx.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>q1314986</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Student ID:  q1314986 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddFcDyCQ/1.dataFcDyCQ.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>q1317061</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Student ID:  q1317061 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddBvxQjq/1.dataBvxQjq.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>q1318019</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1318019 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddPKolHe/1.dataPKolHe.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>q1318538</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1318538 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddAGFDfH/1.dataAGFDfH.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>q1321207</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1321207 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddKnMwsW/1.dataKnMwsW.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>q1321248</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Student ID:  q1321248 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddroLicw/1.dataroLicw.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>q1321269</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Student ID:  q1321269 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddiPplXS/1.dataiPplXS.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q4: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>q1324563</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1324563 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddRtoDUr/1.dataRtoDUr.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>q1324578</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1324578 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddPifHoF/1.dataPifHoF.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>q1324661</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Student ID:  q1324661 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddgNoVpX/1.datagNoVpX.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>q1324821</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1324821 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddIMxjLk/1.dataIMxjLk.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>q1324858</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1324858 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddmpLRsb/1.datampLRsb.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>q1325443</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1325443 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddvJXpST/1.datavJXpST.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>q1325781</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1325781 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddzctJeD/1.datazctJeD.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>q1326587</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1326587 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddvjHkiX/1.datavjHkiX.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>q1326609</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1326609 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddMuAtqc/1.dataMuAtqc.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>q1326708</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Student ID:  q1326708 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddJvRkOy/1.dataJvRkOy.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>q1326807</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1326807 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddxiknwF/1.dataxiknwF.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>q1326968</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1326968 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddgcCnXq/1.datagcCnXq.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>q1333029</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Student ID:  q1333029 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddhARfOE/1.datahARfOE.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>q1333309</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Student ID:  q1333309 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddWvGgPL/1.dataWvGgPL.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>q1333574</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Student ID:  q1333574 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddZBsOwP/1.dataZBsOwP.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>q1335615</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1335615 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddfObAsJ/1.datafObAsJ.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>q1338960</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1338960 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddptlrmf/1.dataptlrmf.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>q1340978</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1340978 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddfeTwoa/1.datafeTwoa.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>q1341116</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1341116 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddsoMgeA/1.datasoMgeA.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>q1341117</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Student ID:  q1341117 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddAFpZOt/1.dataAFpZOt.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>q1342186</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1342186 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddnFiwpj/1.datanFiwpj.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>q1342656</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Student ID:  q1342656 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddhztlIm/1.datahztlIm.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>q1342878</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1342878 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddXuJBTj/1.dataXuJBTj.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>q1343348</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Student ID:  q1343348 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddrDCSWL/1.datarDCSWL.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>q1344050</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Student ID:  q1344050 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddWLSXew/1.dataWLSXew.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>q1344369</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Student ID:  q1344369 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddGvRKHT/1.dataGvRKHT.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>q1345454</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Student ID:  q1345454 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddrEbnVU/1.datarEbnVU.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>q1345891</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1345891 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddhmDbEq/1.datahmDbEq.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V4: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>q1346262</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Student ID:  q1346262 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddRWVPgx/1.dataRWVPgx.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>q1346626</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Student ID:  q1346626 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSdgtcX/1.dataSdgtcX.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>q1346923</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Student ID:  q1346923 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddNAWZvF/1.dataNAWZvF.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>q1347277</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1347277 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddUNAzWq/1.dataUNAzWq.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>q1347408</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Student ID:  q1347408 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddyeglMV/1.datayeglMV.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>q1349191</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1349191 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddTKSAjP/1.dataTKSAjP.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>q1350315</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1350315 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddoyCcBa/1.dataoyCcBa.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>q1359699</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1359699 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSYMduR/1.dataSYMduR.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>q1360810</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Student ID:  q1360810 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddUjYgBe/1.dataUjYgBe.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>q1360933</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1360933 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddLpJseY/1.dataLpJseY.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>q1363092</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Student ID:  q1363092 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddukTMzK/1.dataukTMzK.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>q1363943</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Student ID:  q1363943 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddoEghQs/1.dataoEghQs.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>q1364271</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Student ID:  q1364271 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddIOvUtX/1.dataIOvUtX.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>q1365263</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1365263 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddGaucos/1.dataGaucos.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>q1366242</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Student ID:  q1366242 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddeBbfcI/1.dataeBbfcI.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>q1366735</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Student ID:  q1366735 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddAWounI/1.dataAWounI.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>q1368348</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1368348 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddrgZxKB/1.datargZxKB.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>q1369427</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Student ID:  q1369427 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddoymRWB/1.dataoymRWB.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>q1369771</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1369771 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddpCHYaA/1.datapCHYaA.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>q1371123</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Student ID:  q1371123 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddnKrJPs/1.datanKrJPs.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>q1371150</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1371150 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddHdWwYG/1.dataHdWwYG.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>q1371151</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Student ID:  q1371151 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddWcRBOb/1.dataWcRBOb.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>q1371464</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Student ID:  q1371464 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddgJfvPr/1.datagJfvPr.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>q1371821</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Student ID:  q1371821 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/dddtwgSH/1.datadtwgSH.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>q1373839</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Student ID:  q1373839 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddOmdGjz/1.dataOmdGjz.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>q1374110</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1374110 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddjuXWeT/1.datajuXWeT.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>q1374210</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1374210 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddCXeIRs/1.dataCXeIRs.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>q1374746</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Student ID:  q1374746 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddnNgAyo/1.datanNgAyo.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q4: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>q1375684</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Student ID:  q1375684 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddkiqgEy/1.datakiqgEy.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>q1376375</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1376375 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddMKyxlC/1.dataMKyxlC.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>q1377671</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Student ID:  q1377671 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddUFySoY/1.dataUFySoY.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>q1378116</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1378116 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddGTRcQH/1.dataGTRcQH.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V4: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>q1378290</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1378290 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddkvsNWu/1.datakvsNWu.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>q1378371</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1378371 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddCyPRbt/1.dataCyPRbt.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>q1378375</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1378375 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddgVYRyt/1.datagVYRyt.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>q1378677</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1378677 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddRKzLTf/1.dataRKzLTf.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>q1379576</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Student ID:  q1379576 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/dduYgFLo/1.datauYgFLo.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>q1379658</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Student ID:  q1379658 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddiGVpDg/1.dataiGVpDg.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>q1379669</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Student ID:  q1379669 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddwDHNuE/1.datawDHNuE.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>q1380126</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Student ID:  q1380126 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddRdJhNf/1.dataRdJhNf.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>q1380135</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Student ID:  q1380135 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddTNedOC/1.dataTNedOC.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>q1380277</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1380277 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddcDhWjp/1.datacDhWjp.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V4: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>q1380520</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1380520 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddlZQrzM/1.datalZQrzM.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>q1381134</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1381134 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddOqaZuF/1.dataOqaZuF.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>q1381200</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Student ID:  q1381200 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/dduIZdjM/1.datauIZdjM.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>q1381210</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1381210 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddQPMEfr/1.dataQPMEfr.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V4: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>q1381254</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1381254 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddENYeQU/1.dataENYeQU.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>q1381260</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Student ID:  q1381260 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddulxCSO/1.dataulxCSO.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>q1381297</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1381297 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddaTcibL/1.dataaTcibL.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>q1381312</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1381312 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddBvtjJz/1.dataBvtjJz.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>q1381346</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Student ID:  q1381346 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddTEcChr/1.dataTEcChr.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>q1381362</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Student ID:  q1381362 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/dddMIbsC/1.datadMIbsC.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>q1381374</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Student ID:  q1381374 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddWKvSEh/1.dataWKvSEh.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>q1381386</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1381386 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddjeNyKS/1.datajeNyKS.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>q1381534</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1381534 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSIORoe/1.dataSIORoe.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>q1381535</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1381535 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddtgJDxE/1.datatgJDxE.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>q1381583</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Student ID:  q1381583 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddzTPLSH/1.datazTPLSH.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>q1381723</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1381723 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddgQCOwz/1.datagQCOwz.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>q1381735</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Student ID:  q1381735 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddzcHTEg/1.datazcHTEg.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>q1381753</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Student ID:  q1381753 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddhPdQFm/1.datahPdQFm.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>q1381763</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Student ID:  q1381763 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddCRXxNT/1.dataCRXxNT.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>q1381823</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Student ID:  q1381823 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddlugEXL/1.datalugEXL.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q4: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>q1381858</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1381858 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddKWGFIB/1.dataKWGFIB.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>q1381884</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1381884 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddzYEOFb/1.datazYEOFb.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>q1381960</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Student ID:  q1381960 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddyhYPZF/1.datayhYPZF.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>q1382013</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Student ID:  q1382013 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddhgjkoS/1.datahgjkoS.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q4: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>q1382014</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Student ID:  q1382014 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddPcfSix/1.dataPcfSix.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>q1382037</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1382037 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddtbvlNG/1.datatbvlNG.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>q1382116</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1382116 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/dduESOmJ/1.datauESOmJ.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>q1382275</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Student ID:  q1382275 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddQDLsly/1.dataQDLsly.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>q1382279</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Student ID:  q1382279 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddFhacjd/1.dataFhacjd.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>q1382319</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1382319 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddEFRqDJ/1.dataEFRqDJ.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>q1382348</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Student ID:  q1382348 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/dduqnRok/1.datauqnRok.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>q1382431</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1382431 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddcpldsE/1.datacpldsE.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>q1382574</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Student ID:  q1382574 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddgCULby/1.datagCULby.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>q1382767</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Student ID:  q1382767 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddlNzUSg/1.datalNzUSg.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>q1383115</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1383115 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddBipJev/1.dataBipJev.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>q1383445</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1383445 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddcoJuCN/1.datacoJuCN.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>q1383618</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Student ID:  q1383618 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddaNrsHx/1.dataaNrsHx.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>q1383665</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Student ID:  q1383665 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddugLjFc/1.dataugLjFc.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>q1383704</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1383704 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddrJcgGi/1.datarJcgGi.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>q1383877</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1383877 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddUWXwTe/1.dataUWXwTe.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>q1383980</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Student ID:  q1383980 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddkJBTRi/1.datakJBTRi.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>q1384109</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Student ID:  q1384109 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddLHlBaf/1.dataLHlBaf.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>q1384280</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1384280 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddZJEiBS/1.dataZJEiBS.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>q1384282</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1384282 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddQthMoC/1.dataQthMoC.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>q1384486</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Student ID:  q1384486 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/dduRonHP/1.datauRonHP.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>q1384587</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1384587 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddZOtVzp/1.dataZOtVzp.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>q1384635</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1384635 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddpxsWGu/1.datapxsWGu.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>q1384658</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1384658 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddLXiRQy/1.dataLXiRQy.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>q1387566</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Student ID:  q1387566 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddGQwMnl/1.dataGQwMnl.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>q1388162</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1388162 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddgQcFEp/1.datagQcFEp.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>q1388219</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1388219 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddVuNULd/1.dataVuNULd.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>q1388266</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1388266 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddDeLmwg/1.dataDeLmwg.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>q1388312</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1388312 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddylFbrJ/1.dataylFbrJ.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>q1388335</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1388335 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddsvGodw/1.datasvGodw.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>q1388478</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1388478 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSYhDey/1.dataSYhDey.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>q1388529</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1388529 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddBgWiJF/1.dataBgWiJF.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>q1389018</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1389018 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddXZQSYL/1.dataXZQSYL.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V4: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>q1389032</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1389032 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddOodKan/1.dataOodKan.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>q1389926</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1389926 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddhkzYOU/1.datahkzYOU.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>q1390148</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1390148 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddGAkpsZ/1.dataGAkpsZ.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>q1390320</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1390320 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddWgPvzX/1.dataWgPvzX.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>q1391447</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Student ID:  q1391447 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddQSmPgK/1.dataQSmPgK.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>q1391448</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Student ID:  q1391448 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddnVfaIq/1.datanVfaIq.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>q1391495</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1391495 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddHbhcMG/1.dataHbhcMG.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>q1391884</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Student ID:  q1391884 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddVnXZgY/1.dataVnXZgY.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>q1391974</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1391974 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddFlTbjX/1.dataFlTbjX.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>q1391986</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1391986 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddKbaipM/1.dataKbaipM.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>q1392004</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1392004 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddZFAxau/1.dataZFAxau.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>q1392062</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1392062 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddCPnHXZ/1.dataCPnHXZ.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>q1392106</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1392106 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddiXfcWn/1.dataiXfcWn.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>q1392145</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1392145 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddXRBPnF/1.dataXRBPnF.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>q1392153</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Student ID:  q1392153 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddQRokJH/1.dataQRokJH.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>q1392158</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Student ID:  q1392158 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddxhBYRG/1.dataxhBYRG.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>q1392173</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Student ID:  q1392173 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddQXhvIO/1.dataQXhvIO.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>q1392177</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1392177 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddiUaHPz/1.dataiUaHPz.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>q1392183</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1392183 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddfVEMdT/1.datafVEMdT.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>q1392744</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1392744 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddwRJZsS/1.datawRJZsS.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>q1392796</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Student ID:  q1392796 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddKacXny/1.dataKacXny.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>q1393014</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Student ID:  q1393014 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddqcDxoK/1.dataqcDxoK.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>q1393084</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Student ID:  q1393084 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddOVlIZg/1.dataOVlIZg.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>q1393617</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1393617 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddbFyXoW/1.databFyXoW.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>q1393681</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Student ID:  q1393681 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddgwEPux/1.datagwEPux.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>q1393905</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1393905 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddkKQxZI/1.datakKQxZI.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>q1395034</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Student ID:  q1395034 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddiZoTjk/1.dataiZoTjk.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>q1395096</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1395096 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddujQbsv/1.dataujQbsv.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>q1395814</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Student ID:  q1395814 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddmKzrGS/1.datamKzrGS.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>q1395831</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1395831 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddTumQYF/1.dataTumQYF.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>q1397068</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1397068 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddcCjqHe/1.datacCjqHe.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>q1399412</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1399412 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddLKGiYd/1.dataLKGiYd.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>q1399439</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1399439 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddjJEMBm/1.datajJEMBm.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>q1399441</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1399441 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddtgEclR/1.datatgEclR.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>q1399999</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1399999 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddtwHALz/1.datatwHALz.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>q1400082</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1400082 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddkomXzt/1.datakomXzt.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>q1400449</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Student ID:  q1400449 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddhawqXF/1.datahawqXF.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>q1400456</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Student ID:  q1400456 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddbJakFr/1.databJakFr.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>q1400472</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1400472 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddcnDqHv/1.datacnDqHv.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>q1400475</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1400475 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddUFMZyS/1.dataUFMZyS.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>q1400910</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1400910 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddkNCchq/1.datakNCchq.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>q1401085</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Student ID:  q1401085 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/dduZlBVH/1.datauZlBVH.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>q1401343</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Student ID:  q1401343 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddUMkRTL/1.dataUMkRTL.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>q1401433</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1401433 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSkoEsA/1.dataSkoEsA.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>q1401497</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1401497 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddTzkWBd/1.dataTzkWBd.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>q1402234</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Student ID:  q1402234 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddNtmORH/1.dataNtmORH.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>q1402284</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Student ID:  q1402284 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddElGpdh/1.dataElGpdh.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>q1403069</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Student ID:  q1403069 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddOxiZmN/1.dataOxiZmN.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>q1403245</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1403245 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddsDctMa/1.datasDctMa.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>q1403581</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1403581 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddyWGfqd/1.datayWGfqd.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>q1408512</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1408512 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddRhUpQb/1.dataRhUpQb.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>q1410476</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1410476 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddzHudcy/1.datazHudcy.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
           <t>q1411379</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Student ID:  q1411379 
- Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddnfKWJY/1.datanfKWJY.txt 
- The questions for this task are listed below. 
- Q1: Perform a regression analysis with dependent variable Y1 and independent variables X1 and X2 (without the interaction term). Give the estimate for the parameter corresponding to variable X2. 
- Q2: Perform a regression analysis with dependent variable Y2 and independent variables X2 and X5. Take the interaction into account. Give the p-value of the parameter corresponding to the interaction term. 
- Q3: Perform a regression analysis with dependent variable Y3 and independent variables X1, X2 and X3 (without the interaction terms). Give the proportion of explained variance. 
- Don't forget to round decimals to three digits.</t>
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/dddIpsEV/1.datadIpsEV.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>q1412280</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1412280 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddaZXUIM/1.dataaZXUIM.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>q1414404</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Student ID:  q1414404 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddkhpzoD/1.datakhpzoD.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>q1415243</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Student ID:  q1415243 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddezCvJN/1.dataezCvJN.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>q1416060</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Student ID:  q1416060 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddVLkKAS/1.dataVLkKAS.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>q1417404</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Student ID:  q1417404 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddxLapFV/1.dataxLapFV.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>q1417470</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Student ID:  q1417470 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddcMsQDV/1.datacMsQDV.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>q1417520</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1417520 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddjuJhAs/1.datajuJhAs.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>q1417548</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Student ID:  q1417548 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddHtjxUv/1.dataHtjxUv.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>q1417591</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1417591 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddwLRrMz/1.datawLRrMz.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>q1417726</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1417726 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddXvuwTx/1.dataXvuwTx.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>q1417882</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1417882 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddiNREJM/1.dataiNREJM.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V4: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>q1418628</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1418628 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddgZBVSJ/1.datagZBVSJ.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>q1420929</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1420929 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/dddlBoOT/1.datadlBoOT.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>q1421272</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Student ID:  q1421272 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddtEGwfy/1.datatEGwfy.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>q1422297</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1422297 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddlGcIwr/1.datalGcIwr.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V4: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>q1422656</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Student ID:  q1422656 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddASHnKu/1.dataASHnKu.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>q1423105</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Student ID:  q1423105 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddjYIBgk/1.datajYIBgk.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>q1423904</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Student ID:  q1423904 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddfpZbTg/1.datafpZbTg.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>q1425926</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1425926 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddtFhJOX/1.datatFhJOX.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>q1426547</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1426547 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddIvCjuS/1.dataIvCjuS.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V4: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>q1426862</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1426862 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddXIFxZf/1.dataXIFxZf.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de hat-value van observatie 20. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>q1427375</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1427375 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddMheUuT/1.dataMheUuT.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>q1429085</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Student ID:  q1429085 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddmGLxWZ/1.datamGLxWZ.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>q1429523</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Student ID:  q1429523 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddaenFDq/1.dataaenFDq.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>q1431120</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Student ID:  q1431120 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddbexhwA/1.databexhwA.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>q1431466</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1431466 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddUbKBGa/1.dataUbKBGa.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>q1433332</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1433332 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddIRTXyh/1.dataIRTXyh.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>q1434794</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1434794 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddfTPyuX/1.datafTPyuX.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>q1436788</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Student ID:  q1436788 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddMImUlO/1.dataMImUlO.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>q1438109</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Student ID:  q1438109 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddyYpenF/1.datayYpenF.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>q1439613</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1439613 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddsSGzrM/1.datasSGzrM.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>q1441532</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1441532 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddybWJjH/1.dataybWJjH.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>q1442714</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1442714 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSFJwxO/1.dataSFJwxO.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 2". 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>q1444029</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1444029 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddrVjZlF/1.datarVjZlF.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de Cook’s distance van observatie 35 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>q1444310</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Student ID:  q1444310 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddiBhAyM/1.dataiBhAyM.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>q1444442</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1444442 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddrycDYA/1.datarycDYA.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>q1445403</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1445403 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddwLBRgY/1.datawLBRgY.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>q1446571</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1446571 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddvTaVJB/1.datavTaVJB.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Education". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 6. Wat is de power van de globale F-test als je 20 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>q1446659</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1446659 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSNdZEk/1.dataSNdZEk.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de waarde van de F-teststatistiek voor het globale model. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>q1456891</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Student ID:  q1456891 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddxmuGcE/1.dataxmuGcE.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>q1457300</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1457300 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddjLwBqe/1.datajLwBqe.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = M, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V4: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>q1458990</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1458990 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddCLpsSH/1.dataCLpsSH.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V3: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en je een significantieniveau van 0,05 hanteert. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>q1460275</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1460275 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddqMDdOx/1.dataqMDdOx.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>q1464010</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Student ID:  q1464010 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddQcDoaj/1.dataQcDoaj.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>q1465365</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Student ID:  q1465365 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddPueAdO/1.dataPueAdO.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>q1466577</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Student ID:  q1466577 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSeHoiR/1.dataSeHoiR.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>q1483322</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Student ID:  q1483322 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddvBjuQO/1.datavBjuQO.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>q1503943</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Student ID:  q1503943 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddRKOMjX/1.dataRKOMjX.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>q1510610</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Student ID:  q1510610 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddESrdTp/1.dataESrdTp.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>q1516941</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Student ID:  q1516941 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddnVutmP/1.datanVutmP.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>q1521055</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Student ID:  q1521055 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddaKdOGn/1.dataaKdOGn.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>q1521204</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Student ID:  q1521204 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddIreYmx/1.dataIreYmx.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>q1524479</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Student ID:  q1524479 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddjGbsRH/1.datajGbsRH.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>q1546353</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Student ID:  q1546353 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddDSoviK/1.dataDSoviK.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>q1554537</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Student ID:  q1554537 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddAvokrC/1.dataAvokrC.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>q1570527</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Student ID:  q1570527 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddQcuZBl/1.dataQcuZBl.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>q1579772</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Student ID:  q1579772 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddyImRoz/1.datayImRoz.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>q1592209</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Student ID:  q1592209 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddgTsJiE/1.datagTsJiE.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>q1594195</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Student ID:  q1594195 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddJAmWLD/1.dataJAmWLD.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>q1594364</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Student ID:  q1594364 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddEYnfel/1.dataEYnfel.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>q1595167</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Student ID:  q1595167 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddkYQOiJ/1.datakYQOiJ.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>q1595183</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Student ID:  q1595183 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddZDbqGr/1.dataZDbqGr.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>q1595756</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Student ID:  q1595756 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddpZgIKy/1.datapZgIKy.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>q1596453</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Student ID:  q1596453 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddzKUTiy/1.datazKUTiy.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>q1601101</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Student ID:  q1601101 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddXMpcev/1.dataXMpcev.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>q1603448</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Student ID:  q1603448 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddfPlesq/1.datafPlesq.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>q1610706</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Student ID:  q1610706 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddQNsdTL/1.dataQNsdTL.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>q1634704</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Student ID:  q1634704 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddaqeYXW/1.dataaqeYXW.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>q1644875</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Student ID:  q1644875 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddaSfZTY/1.dataaSfZTY.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>q1648730</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Student ID:  q1648730 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddtzBIaE/1.datatzBIaE.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>q1651277</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Student ID:  q1651277 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddJoTOYj/1.dataJoTOYj.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>q1664193</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Student ID:  q1664193 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddUChWaN/1.dataUChWaN.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>q1666640</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Student ID:  q1666640 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddkcEdOF/1.datakcEdOF.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>q1666820</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Student ID:  q1666820 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSGDPbR/1.dataSGDPbR.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>q1668165</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Student ID:  q1668165 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddfplreg/1.datafplreg.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>q1671175</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Student ID:  q1671175 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddiUGWwn/1.dataiUGWwn.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>q1672034</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Student ID:  q1672034 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/dddAEMXm/1.datadAEMXm.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>q1686165</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1686165 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/dddvqwiG/1.datadvqwiG.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Voor hoeveel contrasten is het verschil tussen gemiddelden significant verschillend van 0, als we significantie niveau α = 0.05 gebruiken? 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>q1688859</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Student ID:  q1688859 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddPxhpgr/1.dataPxhpgr.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>q1689440</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Student ID:  q1689440 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddKeoRXA/1.dataKeoRXA.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q4: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>q1689517</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Student ID:  q1689517 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddDdBRLH/1.dataDdBRLH.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>q1690546</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Student ID:  q1690546 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddoecCvF/1.dataoecCvF.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>q1691076</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Student ID:  q1691076 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddFHckXR/1.dataFHckXR.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>q1691101</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Student ID:  q1691101 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddnTwygO/1.datanTwygO.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>q1691131</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Student ID:  q1691131 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddhoEyRz/1.datahoEyRz.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>q1691278</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Student ID:  q1691278 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddODcGvP/1.dataODcGvP.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>q1691758</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Student ID:  q1691758 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddsTGyRN/1.datasTGyRN.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>q1691766</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Student ID:  q1691766 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddgefksT/1.datagefksT.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>q1692171</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Student ID:  q1692171 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddicOZXr/1.dataicOZXr.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>q1692486</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Student ID:  q1692486 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddgtJMOS/1.datagtJMOS.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>q1693795</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Student ID:  q1693795 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddosXmGV/1.dataosXmGV.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>q1694098</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Student ID:  q1694098 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddLqGKTV/1.dataLqGKTV.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>q1694709</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Student ID:  q1694709 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddAjlaJX/1.dataAjlaJX.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>q1695246</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Student ID:  q1695246 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddZrQPmV/1.dataZrQPmV.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>q1696366</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Student ID:  q1696366 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddezbLdi/1.dataezbLdi.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>q1696976</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Student ID:  q1696976 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddicIgRo/1.dataicIgRo.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the p-value of the interaction effect. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>q1698031</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Student ID:  q1698031 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddxXpKzS/1.dataxXpKzS.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>q1698043</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Student ID:  q1698043 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddRLAZEJ/1.dataRLAZEJ.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the hat-value of observation 12. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>q1698122</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Student ID:  q1698122 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddOxyPBN/1.dataOxyPBN.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>q1698184</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Student ID:  q1698184 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddkYByaT/1.datakYByaT.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 3 - Department 2". 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>q1698309</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Student ID:  q1698309 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddPDnpse/1.dataPDnpse.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=M, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the hat-value of observation 35. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 6. What is the power of the global F-test if there would be 20 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>q1699405</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Student ID:  q1699405 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddScJIhu/1.dataScJIhu.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 2". 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>q1699451</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Student ID:  q1699451 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddGdjTUR/1.dataGdjTUR.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for  Gender=F, Employed =30. Give the upperbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,10. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>q1699452</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Student ID:  q1699452 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddbgmClk/1.databgmClk.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed".  Give the Cook’s distance of observation 25 multiplied by 1000. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the MSE value. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>q1699704</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Student ID:  q1699704 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddCxDNXz/1.dataCxDNXz.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Q3: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>q1700739</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Student ID:  q1700739 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddDIriNX/1.dataDIriNX.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Experience". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Education". Give the Cook’s distance of observation 15 multiplied by 1000. 
+ Q4: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>q1702737</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Student ID:  q1702737 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSmxyig/1.dataSmxyig.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Experience". Give the Cook’s distance of observation 35 multiplied by 1000. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. For how many contrasts is the difference between group means significantly different from zero, if we use α = 0.05 ? 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>q1702981</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Student ID:  q1702981 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSuHaCh/1.dataSuHaCh.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Employed". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variables "Gender" and "Employed" (with the interaction term). Calculate the prediction interval for Gender=F, Employed =30. Give the lowerbound of this interval. 
+ Q3: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q4: Assume you want to perform a one-way ANOVA. You expect the group means to be 55, 60, 57 en 62. Assume that the standard deviation within the groups equals 5. What is the power of the global F-test if there would be 10 observations in each group, given a significance level of 0,05. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>q1712528</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1712528 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddPyTFsD/1.dataPyTFsD.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Experience". Geef de hat-value van observatie 12. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 3 - Department 2". 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de p-waarde van het interactie effect. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>q1723056</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1723056 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddCwTyKl/1.dataCwTyKl.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Experience". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor Gender = F, Employed = 30. Geef de upperbound van dit interval. 
+ V3: Voer een one-way ANOVA uit met responsvariabele "Salary" en factor "Department". Test nadien alle paarsgewijze contrasten met de Tukey methode. Geef de p-waarde van het contrast "Department 4 - Department 1". 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>q1727021</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Student ID:  q1727021 
+ Use the data in https://feb.kuleuven.be/public/u0118298/TASK1/ddaodZme/1.dataaodZme.txt 
+ The questions for this task are listed below. 
+ Q1: Perform a regression with dependent variable "Salary" and independent variables "Employed", "Experience", en "Education" (without interaction terms). Give the variance inflation factor (VIF) of variabele "Education". 
+ Q2: Perform a regression with dependent variable "Salary" and independent variable "Employed". Give the hat-value of observation 20. 
+ Q3: Perform a one-way ANOVA with response variable "Salary" and factor "Department". Afterwards, test all pairwise contrasts with the Tukey method. Give the p-value of the contrast "Department 4 - Department 1". 
+ Q4: Perform a two-way ANOVA with response variable "Salary" and factors "Gender" and "Department" (with interaction effect). Give the F- statistic of the global model. 
+ Don't forget to round decimals to three digits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>q1729368</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1729368 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddSJqNld/1.dataSJqNld.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Employed", "Experience", en "Education" (zonder interactietermen). Geef de variance inflation factor (VIF) van variabele "Employed". 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Employed". Geef de Cook’s distance van observatie 25 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V4: Voer een two-way ANOVA uit met als responsvariabele "Salary" en factoren "Gender" en "Department" (met interactie effect). Geef de MSE waarde. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>q1729905</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Cursist ID:  q1729905 
+ Gebruik de data in https://feb.kuleuven.be/public/u0118298/TASK1/ddbecoTk/1.databecoTk.txt 
+ De vragen voor deze taak staan hieronder vermeld. 
+ V1: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabelen "Gender" en "Employed" (met interactie term). Bereken het prediction interval voor datapunt Gender = F, Employed = 30. Geef de lowerbound van dit interval. 
+ V2: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education".  Geef de Cook’s distance van observatie 15 vermenigvuldigd met 1000. 
+ V3: Voer een regressie uit met als afhankelijke variabele "Salary" en onafhankelijke variabele "Education". Geef de hat-value van observatie 35. 
+ V4: Veronderstel dat je een one-way ANOVA wil uitvoeren, en dat je verwacht dat de groepsgemiddelden de volgende zijn: 55, 60, 57 en 62. Veronderstel verder dat de standaard deviatie binnen de groepen gelijk is aan 5. Wat is de power van de globale F-test als je 10 observaties per groep neemt, en een significantieniveau van 0,10 hanteert. 
+ Vergeet kommagetallen niet af te ronden op 3 decimalen.</t>
         </is>
       </c>
     </row>
